--- a/DateBase/orders/Nha Thu_2024-11-11.xlsx
+++ b/DateBase/orders/Nha Thu_2024-11-11.xlsx
@@ -637,6 +637,9 @@
       <c r="G2" t="str">
         <v>0185103015101010895515201915</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
